--- a/src/main/resources/documents/info_table.xlsx
+++ b/src/main/resources/documents/info_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professional\IdeaProjects\CommandDevelopTelegramBot\src\main\resources\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6DAA28-DDD3-4ABB-8B44-3C6FC9668B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B3C69A-19F9-4B47-9ABA-064917ED1C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="2460" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -104,10 +104,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -393,7 +393,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
